--- a/results/cross-en-de-roberta-sentence-transformer/PoliTo_evaluation_metrics.xlsx
+++ b/results/cross-en-de-roberta-sentence-transformer/PoliTo_evaluation_metrics.xlsx
@@ -711,94 +711,94 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0006779661016949153</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.001694915254237288</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.0003389830508474576</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.001694915254237288</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.0002261016949152542</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.001694915254237288</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.0001694915254237288</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.001694915254237288</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.000135593220338983</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.001694915254237288</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.0001128813559322034</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.001694915254237288</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.0001938983050847458</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.002824745762711864</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.0001694915254237288</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.002824745762711864</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.0001505084745762712</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.002824745762711864</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>0.000135593220338983</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.002824745762711864</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4">
@@ -813,94 +813,94 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.00181992337164751</v>
+        <v>0.002189381499726322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003912404214559387</v>
+        <v>0.005551450465243568</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0025</v>
+        <v>0.0031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002298850574712643</v>
+        <v>0.002052545155993441</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009174425287356321</v>
+        <v>0.009387876299945265</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0037</v>
+        <v>0.0034</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002331800766283525</v>
+        <v>0.001966748768472922</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01391968390804598</v>
+        <v>0.0132541529830323</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001987547892720304</v>
+        <v>0.001823344280240847</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01581139846743295</v>
+        <v>0.0165092706622879</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0035</v>
+        <v>0.0033</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001954022988505748</v>
+        <v>0.001751505199781039</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01967557471264369</v>
+        <v>0.01986415571975916</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0036</v>
+        <v>0.0032</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001802490421455942</v>
+        <v>0.001679426655719775</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02170033524904216</v>
+        <v>0.0227334496442255</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0033</v>
+        <v>0.0031</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001698084291187738</v>
+        <v>0.001602230432402871</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02491441570881227</v>
+        <v>0.02530340038314175</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0032</v>
+        <v>0.003</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001664272030651337</v>
+        <v>0.001561644772851656</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02979947318007664</v>
+        <v>0.02849168035030104</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0032</v>
+        <v>0.003</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001648036398467439</v>
+        <v>0.001496161740558312</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.03406585249042148</v>
+        <v>0.03077579365079364</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0031</v>
+        <v>0.0029</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.001657088122605365</v>
+        <v>0.001454570333880655</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.03757054597701151</v>
+        <v>0.03313312123700053</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0032</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="5">
@@ -915,94 +915,94 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.008084239130434765</v>
+        <v>0.007742686654053242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01946368885869566</v>
+        <v>0.01985759957308497</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0114</v>
+        <v>0.0111</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006623641304347827</v>
+        <v>0.006190268277300598</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03204673913043478</v>
+        <v>0.0315042837044584</v>
       </c>
       <c r="H5" t="n">
-        <v>0.011</v>
+        <v>0.0103</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005618308423913076</v>
+        <v>0.005325731334594554</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04170193614130433</v>
+        <v>0.04025011400572467</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0094</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005112092391304369</v>
+        <v>0.004807645660505351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05058057065217388</v>
+        <v>0.04806300392955921</v>
       </c>
       <c r="N5" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004619565217391272</v>
+        <v>0.004414689758890141</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0563525475543478</v>
+        <v>0.05475944306990756</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>0.004231250000000015</v>
+        <v>0.004092999563382141</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06196032608695652</v>
+        <v>0.06065921505845855</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0077</v>
       </c>
       <c r="U5" t="n">
-        <v>0.003923709239130464</v>
+        <v>0.003836632222383781</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06712659646739132</v>
+        <v>0.06576002037549153</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0074</v>
+        <v>0.0073</v>
       </c>
       <c r="X5" t="n">
-        <v>0.003702445652173939</v>
+        <v>0.00364575753165476</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07146307744565217</v>
+        <v>0.0708801921117745</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.007</v>
+        <v>0.0069</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.003498980978260858</v>
+        <v>0.003474516082084027</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07703175951086957</v>
+        <v>0.07595548925435447</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0067</v>
+        <v>0.0066</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.003288043478260835</v>
+        <v>0.003332848202590739</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.08050859375000004</v>
+        <v>0.08088783292097265</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="6">
@@ -1017,94 +1017,94 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01008403361344538</v>
+        <v>0.002870813397129187</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02127563025210084</v>
+        <v>0.007813157894736843</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0137</v>
+        <v>0.0042</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005042016806722689</v>
+        <v>0.002033492822966507</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02127563025210084</v>
+        <v>0.01150131578947369</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.0035</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004483193277310924</v>
+        <v>0.001914712918660287</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02967899159663866</v>
+        <v>0.01615789473684211</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0078</v>
+        <v>0.0034</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003781512605042017</v>
+        <v>0.001854066985645934</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03177983193277311</v>
+        <v>0.02074318181818182</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0068</v>
+        <v>0.0034</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003361344537815126</v>
+        <v>0.001770334928229666</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03458067226890756</v>
+        <v>0.02343456937799043</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0061</v>
+        <v>0.0033</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002799159663865546</v>
+        <v>0.001513755980861245</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03458067226890756</v>
+        <v>0.02383325358851674</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0052</v>
+        <v>0.0028</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002642857142857143</v>
+        <v>0.001470933014354066</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04298403361344537</v>
+        <v>0.02730215311004785</v>
       </c>
       <c r="W6" t="n">
-        <v>0.005</v>
+        <v>0.0028</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002310924369747899</v>
+        <v>0.001345693779904306</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04298403361344537</v>
+        <v>0.02819928229665072</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0044</v>
+        <v>0.0026</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.002052100840336134</v>
+        <v>0.001407416267942584</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04298403361344537</v>
+        <v>0.03261519138755981</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0039</v>
+        <v>0.0027</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.001848739495798319</v>
+        <v>0.001387559808612441</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.04298403361344537</v>
+        <v>0.03458038277511961</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0035</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="7">
@@ -1119,94 +1119,94 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.004651162790697673</v>
+        <v>0.005433142167220034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01187441860465116</v>
+        <v>0.0130171445819499</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0067</v>
+        <v>0.0077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003594080338266386</v>
+        <v>0.004738907334741914</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01758266384778013</v>
+        <v>0.0213875641412617</v>
       </c>
       <c r="H7" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.004388620585572012</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02888644732870511</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003954120132810154</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.03423416842740718</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.003718683972230585</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.04011162088741321</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.003518623603984313</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.04568789616661636</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.003279655900996094</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.04917959553274975</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.003154240869302769</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.05340322970117714</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0.006</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.004089006342494714</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.02958329809725158</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.003276955602537</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.03275454545454545</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.003044397463002116</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.03481860465116279</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.002675687103594082</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.03550570824524313</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.002539112050739957</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.03917019027484143</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.00258985200845666</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.04364524312896405</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.0049</v>
-      </c>
       <c r="AA7" t="n">
-        <v>0.002581395348837209</v>
+        <v>0.00302885602173256</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.04953488372093023</v>
+        <v>0.05731095683670382</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0049</v>
+        <v>0.0058</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002494714587737845</v>
+        <v>0.002843344400845126</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.05195116279069768</v>
+        <v>0.05964340476909137</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0048</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="8">
@@ -1221,94 +1221,94 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003174603174603175</v>
+        <v>0.004058624577226608</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01058174603174603</v>
+        <v>0.01240586245772266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0049</v>
+        <v>0.0061</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001587301587301587</v>
+        <v>0.003156708004509584</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01058174603174603</v>
+        <v>0.01727226606538895</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0028</v>
+        <v>0.0053</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003176190476190476</v>
+        <v>0.003083089064261556</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01851825396825397</v>
+        <v>0.02354013528748591</v>
       </c>
       <c r="K8" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.002931228861330325</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.03143190529875987</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.0054</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.003174603174603174</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0056</v>
-      </c>
       <c r="O8" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.002570462232243519</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.03456978579481398</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0052</v>
+        <v>0.0048</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002643650793650794</v>
+        <v>0.002402818489289745</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03892897406989854</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0049</v>
+        <v>0.0045</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002723015873015874</v>
+        <v>0.00225682074408117</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04232777777777778</v>
+        <v>0.04281217587373169</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0051</v>
+        <v>0.0043</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002380952380952381</v>
+        <v>0.002057497181510708</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04232777777777778</v>
+        <v>0.04354498308906427</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0045</v>
+        <v>0.0039</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.002290476190476191</v>
+        <v>0.001952198421645998</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.04629603174603174</v>
+        <v>0.04636347237880497</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0044</v>
+        <v>0.0037</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.002222222222222222</v>
+        <v>0.001916572717023677</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05026428571428571</v>
+        <v>0.05069582863585119</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0043</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="9">
@@ -1323,94 +1323,94 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.008053691275167784</v>
+        <v>0.006889952153110051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02333020134228188</v>
+        <v>0.01902248803827751</v>
       </c>
       <c r="E9" t="n">
-        <v>0.012</v>
+        <v>0.0101</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008724832214765102</v>
+        <v>0.005550239234449757</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04665973154362416</v>
+        <v>0.03038019138755981</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0147</v>
+        <v>0.0094</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005818120805369127</v>
+        <v>0.004850526315789474</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04665973154362416</v>
+        <v>0.03767779904306222</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0103</v>
+        <v>0.0086</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00604026845637584</v>
+        <v>0.004832535885167456</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06383825503355706</v>
+        <v>0.04766411483253592</v>
       </c>
       <c r="N9" t="n">
-        <v>0.011</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00563758389261745</v>
+        <v>0.004784688995215314</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07726107382550336</v>
+        <v>0.05915645933014357</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0105</v>
+        <v>0.0089</v>
       </c>
       <c r="R9" t="n">
-        <v>0.004694630872483222</v>
+        <v>0.004430430622009571</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07726107382550336</v>
+        <v>0.06528076555023926</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0089</v>
+        <v>0.0083</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004029530201342282</v>
+        <v>0.00399473684210526</v>
       </c>
       <c r="V9" t="n">
-        <v>0.07726107382550336</v>
+        <v>0.06758535885167467</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0077</v>
+        <v>0.0075</v>
       </c>
       <c r="X9" t="n">
-        <v>0.003523489932885907</v>
+        <v>0.003803827751196164</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.07726107382550336</v>
+        <v>0.07284057416267947</v>
       </c>
       <c r="Z9" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.003526698564593314</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.07770497607655506</v>
+      </c>
+      <c r="AC9" t="n">
         <v>0.0067</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0.003277852348993289</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.07949798657718121</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.0063</v>
-      </c>
       <c r="AD9" t="n">
-        <v>0.003758389261744968</v>
+        <v>0.003464114832535888</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1015335570469799</v>
+        <v>0.08598239234449764</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0072</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="10">
@@ -1425,94 +1425,94 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.003542673107890499</v>
+        <v>0.00248390064397424</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004000805152979067</v>
+        <v>0.003745768169273228</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0038</v>
+        <v>0.003</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002737520128824478</v>
+        <v>0.001977920883164671</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007022222222222222</v>
+        <v>0.005884015639374425</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0039</v>
+        <v>0.003</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002255233494363929</v>
+        <v>0.00171803127874885</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008632528180354268</v>
+        <v>0.007703472861085556</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0036</v>
+        <v>0.0028</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002012882447665057</v>
+        <v>0.001609935602575893</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01021594202898551</v>
+        <v>0.009524218031278755</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0034</v>
+        <v>0.0028</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001932367149758455</v>
+        <v>0.001591536338546459</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01182495974235105</v>
+        <v>0.01197150413983442</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0033</v>
+        <v>0.0028</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001770531400966184</v>
+        <v>0.001516720331186749</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01300579710144928</v>
+        <v>0.01415915363385466</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0031</v>
+        <v>0.0027</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001564895330112721</v>
+        <v>0.001433647654093835</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01461610305958132</v>
+        <v>0.01543132474701013</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0028</v>
+        <v>0.0026</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001570048309178745</v>
+        <v>0.001385694572217115</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01756843800322061</v>
+        <v>0.0170300597976081</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0029</v>
+        <v>0.0026</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001429951690821256</v>
+        <v>0.001317295308187674</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01810515297906602</v>
+        <v>0.01812465501379945</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0027</v>
+        <v>0.0025</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.001481481481481482</v>
+        <v>0.00130174793008279</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.02002415458937198</v>
+        <v>0.0195767479300828</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0028</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="11">
@@ -1527,94 +1527,94 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001918465227817746</v>
+        <v>0.00499486828600752</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003676978417266187</v>
+        <v>0.009641190557646255</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0025</v>
+        <v>0.0066</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003357314148681055</v>
+        <v>0.0040369483407458</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01161342925659473</v>
+        <v>0.01479695518303114</v>
       </c>
       <c r="H11" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003605200136845717</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01913739308929184</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003232979815258297</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0227707150188163</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.002983236400957916</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.02604929866575437</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.002837256243585349</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0297277796784126</v>
+      </c>
+      <c r="T11" t="n">
         <v>0.0052</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.003198800959232613</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.01712877697841727</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.002757793764988011</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.02072589928057554</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="U11" t="n">
+        <v>0.002729319192610329</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0328294902497434</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.002651385562777981</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.03617632569278137</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0.0049</v>
       </c>
-      <c r="O11" t="n">
-        <v>0.002589928057553958</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.02540215827338129</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.002396163069544364</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.02734340527577937</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.00226282973621103</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.03173980815347721</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.002278177458033574</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.0354167865707434</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.0043</v>
-      </c>
       <c r="AA11" t="n">
-        <v>0.00239568345323741</v>
+        <v>0.002574786178583642</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.04041270983213428</v>
+        <v>0.03901724255901468</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0045</v>
+        <v>0.0048</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002446043165467627</v>
+        <v>0.002538487854943529</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0434997601918465</v>
+        <v>0.04244786178583644</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0046</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="12">
@@ -1625,94 +1625,94 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.004132879169170453</v>
+        <v>0.003734133548014212</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009811587287428022</v>
+        <v>0.009274957699217223</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00575</v>
+        <v>0.005290000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003396555710362177</v>
+        <v>0.003007601310471973</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01559565875718592</v>
+        <v>0.01438093834647307</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005549999999999999</v>
+        <v>0.004960000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003097065454515839</v>
+        <v>0.002707876209786062</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02058232004138902</v>
+        <v>0.0188302324589467</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00536</v>
+        <v>0.00472</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002814365633523577</v>
+        <v>0.002521534874895798</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02495159666595673</v>
+        <v>0.02326354932730642</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005050000000000001</v>
+        <v>0.00455</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002599635216378698</v>
+        <v>0.002372073104643362</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02916616227743293</v>
+        <v>0.0271611752239854</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00475</v>
+        <v>0.004370000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>0.002301356332556015</v>
+        <v>0.002210491284595109</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03070716037671671</v>
+        <v>0.03027054026444595</v>
       </c>
       <c r="T12" t="n">
-        <v>0.00427</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002138403386459721</v>
+        <v>0.002079787430811215</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03401399988808301</v>
+        <v>0.03290282648863027</v>
       </c>
       <c r="W12" t="n">
-        <v>0.00402</v>
+        <v>0.003899999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>0.002002016214208045</v>
+        <v>0.001977523354683919</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.03604659035453834</v>
+        <v>0.03533910729647485</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.00379</v>
+        <v>0.003739999999999999</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001917447724942979</v>
+        <v>0.001892843705990438</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.038792841047008</v>
+        <v>0.03806925229202977</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.00365</v>
+        <v>0.0036</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001919672181531866</v>
+        <v>0.001837483930085383</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.04283360936736386</v>
+        <v>0.04097723181611641</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.00367</v>
+        <v>0.00352</v>
       </c>
     </row>
   </sheetData>
@@ -1898,94 +1898,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.000664451827242525</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.001661129568106312</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0003322259136212625</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.001661129568106312</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.000221594684385382</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.001661129568106312</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0001661129568106312</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.001661129568106312</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.000132890365448505</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.001661129568106312</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.0001106312292358804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.001661129568106312</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.0001900332225913621</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.00276843853820598</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.0001661129568106312</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.00276843853820598</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.0001475083056478405</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.00276843853820598</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.000132890365448505</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.00276843853820598</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="3">
@@ -1995,94 +1995,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005484896661367237</v>
+        <v>0.005438701070141013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01301077106518283</v>
+        <v>0.01392218626699596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0077</v>
+        <v>0.0078</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004829093799682048</v>
+        <v>0.004473587101535543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02255600158982511</v>
+        <v>0.02232850776349037</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008</v>
+        <v>0.0075</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004254590620031825</v>
+        <v>0.003932138295154462</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03017384737678853</v>
+        <v>0.02904988219932455</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0075</v>
+        <v>0.0069</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003815580286168546</v>
+        <v>0.00356950239859194</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03615329888712241</v>
+        <v>0.0349718186721169</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0069</v>
+        <v>0.0065</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003513513513513479</v>
+        <v>0.003309773198217542</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04113364467408586</v>
+        <v>0.04028189559737736</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0065</v>
+        <v>0.0061</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.003223449920508764</v>
+        <v>0.003091643248459909</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04525467011128777</v>
+        <v>0.04492436628913704</v>
       </c>
       <c r="S3" t="n">
-        <v>0.006</v>
+        <v>0.0058</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00300019872813994</v>
+        <v>0.002909611399698983</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04961089030206679</v>
+        <v>0.04897515683102016</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0057</v>
+        <v>0.0055</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002856717011128801</v>
+        <v>0.002781089443356437</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05417500000000001</v>
+        <v>0.05329381475488974</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0054</v>
+        <v>0.0053</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002730941971383134</v>
+        <v>0.002653725623775762</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05920329888712244</v>
+        <v>0.05721109029492782</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0052</v>
+        <v>0.0051</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.002611287758346547</v>
+        <v>0.002553578018110072</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.062691693163752</v>
+        <v>0.06107509722103963</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.005</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="4">
@@ -2092,94 +2092,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005743243243243244</v>
+        <v>0.004916847433116404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01376418918918919</v>
+        <v>0.01196857073993734</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0081</v>
+        <v>0.007</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003885135135135136</v>
+        <v>0.004193781634128701</v>
       </c>
       <c r="F4" t="n">
-        <v>0.018325</v>
+        <v>0.01939554109423959</v>
       </c>
       <c r="G4" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00389014220294049</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02632171607616292</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.003530971318389987</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03151581103880451</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.0064</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.004168243243243244</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02960253378378378</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.00337837837837838</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.03255861486486487</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>0.003326102675343432</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.03675128946734151</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.0061</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.00310810810810811</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.03477077702702702</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0057</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.002700506756756759</v>
+        <v>0.003114654133526162</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03531976351351351</v>
+        <v>0.04128430947216192</v>
       </c>
       <c r="S4" t="n">
-        <v>0.005</v>
+        <v>0.0058</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002559966216216215</v>
+        <v>0.002915208483972064</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03993682432432432</v>
+        <v>0.04477141479874662</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0048</v>
+        <v>0.0055</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002533783783783782</v>
+        <v>0.002789828874427594</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04351233108108106</v>
+        <v>0.04832477705471191</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0048</v>
+        <v>0.0053</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.002475</v>
+        <v>0.002702145095203653</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04821807432432432</v>
+        <v>0.05233489997589774</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0047</v>
+        <v>0.0051</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.002364864864864866</v>
+        <v>0.00255001205109662</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05014864864864864</v>
+        <v>0.05459334779464925</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0045</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="5">
@@ -2189,94 +2189,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005818181818181818</v>
+        <v>0.005590062111801239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01748909090909091</v>
+        <v>0.01598473084886129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0083</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005454545454545455</v>
+        <v>0.004451345755693575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03012945454545455</v>
+        <v>0.02436221532091098</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0092</v>
+        <v>0.0075</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004607636363636363</v>
+        <v>0.00403907867494824</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03376581818181818</v>
+        <v>0.03118706004140787</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0081</v>
+        <v>0.0072</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00472727272727273</v>
+        <v>0.003959627329192537</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04549781818181818</v>
+        <v>0.04021174948240164</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0086</v>
+        <v>0.0072</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004363636363636366</v>
+        <v>0.003768115942028989</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05640690909090908</v>
+        <v>0.04786847826086955</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0081</v>
+        <v>0.007</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.003754909090909091</v>
+        <v>0.003499534161490675</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0582250909090909</v>
+        <v>0.05318240165631467</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0071</v>
+        <v>0.0066</v>
       </c>
       <c r="T5" t="n">
-        <v>0.003430909090909089</v>
+        <v>0.003196842650103517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06125527272727272</v>
+        <v>0.05621174948240163</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0065</v>
+        <v>0.006</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003000000000000001</v>
+        <v>0.003002070393374747</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06125527272727272</v>
+        <v>0.05939068322981363</v>
       </c>
       <c r="Y5" t="n">
         <v>0.0057</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002825454545454545</v>
+        <v>0.002803830227743275</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.06428545454545455</v>
+        <v>0.06331578674948236</v>
       </c>
       <c r="AB5" t="n">
         <v>0.0054</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.003054545454545456</v>
+        <v>0.002753623188405787</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.07804290909090908</v>
+        <v>0.0697819875776397</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0059</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="6">
@@ -2286,94 +2286,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002890173410404625</v>
+        <v>0.003493329665795619</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003870712909441233</v>
+        <v>0.006115774996561685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0033</v>
+        <v>0.0044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00298651252408478</v>
+        <v>0.00280566634575712</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008866666666666665</v>
+        <v>0.009467088433502963</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0045</v>
+        <v>0.0043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002634296724470134</v>
+        <v>0.002476688213450711</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01204576107899807</v>
+        <v>0.0123</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0043</v>
+        <v>0.0041</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002312138728323699</v>
+        <v>0.002262412322926707</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01443815028901734</v>
+        <v>0.01484941548617796</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004</v>
+        <v>0.0039</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002196531791907516</v>
+        <v>0.002151010865080437</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01727938342967245</v>
+        <v>0.01763088983633612</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0039</v>
+        <v>0.0038</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002021868978805397</v>
+        <v>0.002047586301746676</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01876570327552986</v>
+        <v>0.02041786549305459</v>
       </c>
       <c r="S6" t="n">
         <v>0.0037</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001845279383429671</v>
+        <v>0.001954517948012674</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02149527938342968</v>
+        <v>0.02242552606243981</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0034</v>
+        <v>0.0036</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001854527938342965</v>
+        <v>0.001894512446706109</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02473872832369942</v>
+        <v>0.0247270114152111</v>
       </c>
       <c r="Y6" t="n">
         <v>0.0035</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.001817919075144509</v>
+        <v>0.001822816668958869</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02706685934489403</v>
+        <v>0.0265236418649429</v>
       </c>
       <c r="AB6" t="n">
         <v>0.0034</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001868978805394992</v>
+        <v>0.001798927245220716</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02945510597302505</v>
+        <v>0.02877111814055836</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0035</v>
+        <v>0.0034</v>
       </c>
     </row>
   </sheetData>
@@ -2559,94 +2559,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00257191201353638</v>
+        <v>0.002358285410525306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004913265651438239</v>
+        <v>0.005555617841782241</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002082829942492646</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.009072270816218038</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0034</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.002470389170896782</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.009266362098138747</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0039</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.00243756345177665</v>
+        <v>0.00195966752041753</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01363458544839256</v>
+        <v>0.01264222200744212</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0041</v>
+        <v>0.0034</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002115059221658202</v>
+        <v>0.001826704682742956</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01561424703891709</v>
+        <v>0.01584749432175131</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0037</v>
+        <v>0.0033</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002043993231810492</v>
+        <v>0.001753249891267551</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01913401015228427</v>
+        <v>0.01897459527376406</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0037</v>
+        <v>0.0032</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001871167512690354</v>
+        <v>0.001669066834195145</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02098206429780035</v>
+        <v>0.02166388150582321</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0034</v>
+        <v>0.0031</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001751269035532994</v>
+        <v>0.001589097762528415</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02421194585448394</v>
+        <v>0.02405300826366403</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0033</v>
+        <v>0.003</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001700507614213197</v>
+        <v>0.001536751558498011</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02828416243654824</v>
+        <v>0.02670855361716525</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0032</v>
+        <v>0.0029</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00164531302876481</v>
+        <v>0.001474107186004969</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.03158077834179358</v>
+        <v>0.02885109457304414</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0031</v>
+        <v>0.0028</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001651438240270724</v>
+        <v>0.001439134006668896</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.03462967851099832</v>
+        <v>0.03108634804040027</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0032</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="3">
@@ -2656,94 +2656,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006956521739130418</v>
+        <v>0.007080776189293601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01687632298136647</v>
+        <v>0.01777325197772182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0101</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005937888198757778</v>
+        <v>0.005711447727836935</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02843659627329191</v>
+        <v>0.02822922416545473</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0098</v>
+        <v>0.0095</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005136695652173947</v>
+        <v>0.004966203128879934</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03748034782608695</v>
+        <v>0.03622648196104886</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004633540372670835</v>
+        <v>0.004496434779523759</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04535570186335401</v>
+        <v>0.04331506261307629</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0081</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004213664596273253</v>
+        <v>0.004153393167547837</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05080141614906829</v>
+        <v>0.04966855156266658</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0078</v>
+        <v>0.0077</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.003831329192546607</v>
+        <v>0.003866139274184754</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05518496894409936</v>
+        <v>0.05524655362020683</v>
       </c>
       <c r="S3" t="n">
         <v>0.0072</v>
       </c>
       <c r="T3" t="n">
-        <v>0.003551900621118052</v>
+        <v>0.00362409095746551</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05984983850931676</v>
+        <v>0.05980573628010966</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0067</v>
+        <v>0.0068</v>
       </c>
       <c r="W3" t="n">
-        <v>0.003378881987577668</v>
+        <v>0.003454361630423349</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06392849689440991</v>
+        <v>0.06458808045691627</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0064</v>
+        <v>0.0066</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.003232149068322966</v>
+        <v>0.003295991344141195</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06929411180124223</v>
+        <v>0.06923353435737394</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0062</v>
+        <v>0.0063</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.003090683229813624</v>
+        <v>0.003164354890205395</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.07325667080745343</v>
+        <v>0.07377698747738511</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0059</v>
+        <v>0.0061</v>
       </c>
     </row>
   </sheetData>
